--- a/audible/code/settings.xlsx
+++ b/audible/code/settings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>kindle-categories</t>
   </si>
@@ -52,45 +52,33 @@
     <t>Author</t>
   </si>
   <si>
-    <t>Business &amp; Careers</t>
-  </si>
-  <si>
     <t>Ratings</t>
   </si>
   <si>
     <t>Children's eBooks</t>
   </si>
   <si>
-    <t>Children's Audiobooks</t>
-  </si>
-  <si>
     <t>Stars</t>
   </si>
   <si>
     <t>Comics, Manga &amp; Graphic Novels</t>
   </si>
   <si>
+    <t>Listening Length</t>
+  </si>
+  <si>
     <t>Computers &amp; Technology</t>
   </si>
   <si>
-    <t>Listening Length</t>
-  </si>
-  <si>
     <t>Page numbers source ISBN</t>
   </si>
   <si>
-    <t>Education &amp; Learning</t>
-  </si>
-  <si>
     <t>Cookbooks, Food &amp; Wine</t>
   </si>
   <si>
     <t>ASIN</t>
   </si>
   <si>
-    <t>Erotica</t>
-  </si>
-  <si>
     <t>Narrator</t>
   </si>
   <si>
@@ -100,136 +88,109 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Health &amp; Wellness</t>
-  </si>
-  <si>
     <t>Whispersync for Voice</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Education &amp; Teaching</t>
   </si>
   <si>
     <t>Publication date</t>
   </si>
   <si>
+    <t>Audible.com Release Date</t>
+  </si>
+  <si>
+    <t>Engineering &amp; Transportation</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Foreign Languages</t>
+  </si>
+  <si>
+    <t>File size</t>
+  </si>
+  <si>
+    <t>Program Type</t>
+  </si>
+  <si>
+    <t>Health, Fitness &amp; Dieting</t>
+  </si>
+  <si>
+    <t>Text-to-Speech</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
     <t>History</t>
   </si>
   <si>
-    <t>Audible.com Release Date</t>
-  </si>
-  <si>
-    <t>Engineering &amp; Transportation</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Home &amp; Garden</t>
-  </si>
-  <si>
-    <t>Foreign Languages</t>
-  </si>
-  <si>
-    <t>File size</t>
-  </si>
-  <si>
-    <t>LGBTQ+</t>
-  </si>
-  <si>
-    <t>Program Type</t>
-  </si>
-  <si>
-    <t>Health, Fitness &amp; Dieting</t>
-  </si>
-  <si>
-    <t>Text-to-Speech</t>
+    <t>Screen Reader</t>
+  </si>
+  <si>
+    <t>Humor &amp; Entertainment</t>
+  </si>
+  <si>
+    <t>Enhanced typesetting</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>X-Ray</t>
+  </si>
+  <si>
+    <t>Best Sellers Rank</t>
+  </si>
+  <si>
+    <t>LGBTQ+ eBooks</t>
+  </si>
+  <si>
+    <t>Word Wise</t>
   </si>
   <si>
     <t>Literature &amp; Fiction</t>
   </si>
   <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Screen Reader</t>
-  </si>
-  <si>
-    <t>Money &amp; Finance</t>
-  </si>
-  <si>
-    <t>Humor &amp; Entertainment</t>
-  </si>
-  <si>
-    <t>Enhanced typesetting</t>
+    <t>Print length</t>
+  </si>
+  <si>
+    <t>Medical eBooks</t>
   </si>
   <si>
     <t>Mystery, Thriller &amp; Suspense</t>
   </si>
   <si>
-    <t>Law</t>
-  </si>
-  <si>
-    <t>X-Ray</t>
+    <t>Nonfiction</t>
+  </si>
+  <si>
+    <t>Parenting &amp; Relationships</t>
   </si>
   <si>
     <t>Politics &amp; Social Sciences</t>
   </si>
   <si>
-    <t>Best Sellers Rank</t>
-  </si>
-  <si>
-    <t>LGBTQ+ eBooks</t>
-  </si>
-  <si>
-    <t>Word Wise</t>
-  </si>
-  <si>
-    <t>Relationships, Parenting &amp; Personal Development</t>
-  </si>
-  <si>
-    <t>Print length</t>
+    <t>Reference</t>
   </si>
   <si>
     <t>Religion &amp; Spirituality</t>
   </si>
   <si>
-    <t>Medical eBooks</t>
-  </si>
-  <si>
     <t>Romance</t>
   </si>
   <si>
-    <t>Science &amp; Engineering</t>
-  </si>
-  <si>
-    <t>Nonfiction</t>
+    <t>Science &amp; Math</t>
   </si>
   <si>
     <t>Science Fiction &amp; Fantasy</t>
   </si>
   <si>
-    <t>Parenting &amp; Relationships</t>
+    <t>Self-Help</t>
   </si>
   <si>
     <t>Sports &amp; Outdoors</t>
-  </si>
-  <si>
-    <t>Teen</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Travel &amp; Tourism</t>
-  </si>
-  <si>
-    <t>Science &amp; Math</t>
-  </si>
-  <si>
-    <t>Self-Help</t>
   </si>
   <si>
     <t>Teen &amp; Young Adult</t>
@@ -292,12 +253,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -306,8 +281,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,51 +292,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,6 +306,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -412,9 +358,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,37 +411,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,145 +591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,26 +633,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -710,6 +651,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,10 +702,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,139 +734,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
@@ -1238,7 +1196,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1275,14 +1233,14 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1292,9 +1250,7 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -1306,323 +1262,256 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" ht="25.5" spans="1:3">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="Biographies &amp; Memoirs" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Biographies-Memoirs/zgbs/audible/18571951011/ref=zg_bs_nav_1_audible"/>
-    <hyperlink ref="C4" r:id="rId2" display="Business &amp; Careers" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Business-Careers/zgbs/audible/18572029011/ref=zg_bs_nav_1_audible"/>
-    <hyperlink ref="C5" r:id="rId3" display="Children's Audiobooks" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Children/zgbs/audible/18572091011/ref=zg_bs_nav_1_audible"/>
-    <hyperlink ref="C6" r:id="rId4" display="Computers &amp; Technology" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Computers-Technology/zgbs/audible/18573211011/ref=zg_bs_nav_1_audible"/>
-    <hyperlink ref="C7" r:id="rId5" display="Education &amp; Learning" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Education-Learning/zgbs/audible/18573267011/ref=zg_bs_nav_1_audible"/>
-    <hyperlink ref="C8" r:id="rId6" display="Erotica" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Erotica/zgbs/audible/18573351011/ref=zg_bs_nav_1_audible"/>
-    <hyperlink ref="C9" r:id="rId7" display="Health &amp; Wellness" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Health-Wellness/zgbs/audible/18573370011/ref=zg_bs_nav_1_audible"/>
-    <hyperlink ref="C10" r:id="rId8" display="History" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-History/zgbs/audible/18573518011/ref=zg_bs_nav_1_audible"/>
-    <hyperlink ref="C11" r:id="rId9" display="Home &amp; Garden" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Home-Garden/zgbs/audible/18573701011/ref=zg_bs_nav_1_audible"/>
-    <hyperlink ref="C12" r:id="rId10" display="LGBTQ+" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-LGBTQ/zgbs/audible/18573743011/ref=zg_bs_nav_1_audible"/>
-    <hyperlink ref="C13" r:id="rId11" display="Literature &amp; Fiction" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Literature-Fiction/zgbs/audible/18574426011/ref=zg_bs_nav_1_audible"/>
-    <hyperlink ref="C14" r:id="rId12" display="Money &amp; Finance" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Money-Finance/zgbs/audible/18574547011/ref=zg_bs_nav_1_audible"/>
-    <hyperlink ref="C15" r:id="rId13" display="Mystery, Thriller &amp; Suspense" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Mystery-Thriller-Suspense/zgbs/audible/18574597011/ref=zg_bs_nav_1_audible"/>
-    <hyperlink ref="C16" r:id="rId14" display="Politics &amp; Social Sciences" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Politics-Social-Sciences/zgbs/audible/18574641011/ref=zg_bs_nav_1_audible"/>
-    <hyperlink ref="C17" r:id="rId15" display="Relationships, Parenting &amp; Personal Development" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Relationships-Parenting-Personal-Development/zgbs/audible/18574784011/ref=zg_bs_nav_1_audible"/>
-    <hyperlink ref="C18" r:id="rId16" display="Religion &amp; Spirituality" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Religion-Spirituality/zgbs/audible/18574839011/ref=zg_bs_nav_1_audible"/>
-    <hyperlink ref="C19" r:id="rId17" display="Romance" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Romance/zgbs/audible/18580518011/ref=zg_bs_nav_1_audible"/>
-    <hyperlink ref="C20" r:id="rId18" display="Science &amp; Engineering" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Science-Engineering/zgbs/audible/18580540011/ref=zg_bs_nav_1_audible"/>
-    <hyperlink ref="C21" r:id="rId19" display="Science Fiction &amp; Fantasy" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Science-Fiction-Fantasy/zgbs/audible/18580606011/ref=zg_bs_nav_1_audible"/>
-    <hyperlink ref="C22" r:id="rId20" display="Sports &amp; Outdoors" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Sports-Outdoors/zgbs/audible/18580648011/ref=zg_bs_nav_1_audible"/>
-    <hyperlink ref="C23" r:id="rId21" display="Teen" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Teen/zgbs/audible/18580715011/ref=zg_bs_nav_1_audible"/>
-    <hyperlink ref="C24" r:id="rId22" display="Travel &amp; Tourism" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Travel-Tourism/zgbs/audible/18581095011/ref=zg_bs_nav_1_audible"/>
-    <hyperlink ref="C2" r:id="rId23" display="Arts &amp; Entertainment" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Arts-Entertainment/zgbs/audible/18571910011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="C2" r:id="rId1" display="Arts &amp; Entertainment" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Arts-Entertainment/zgbs/audible/18571910011/ref=zg_bs_nav_1_audible"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/audible/code/settings.xlsx
+++ b/audible/code/settings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>audible-categories</t>
   </si>
@@ -31,46 +31,115 @@
     <t>Title</t>
   </si>
   <si>
+    <t>Biographies &amp; Memoirs</t>
+  </si>
+  <si>
     <t>Web-Link</t>
   </si>
   <si>
+    <t>Business &amp; Careers</t>
+  </si>
+  <si>
     <t>Ratings</t>
   </si>
   <si>
+    <t>Children's Audiobooks</t>
+  </si>
+  <si>
     <t>Stars</t>
   </si>
   <si>
+    <t>Computers &amp; Technology</t>
+  </si>
+  <si>
     <t>Listening Length</t>
   </si>
   <si>
+    <t>Education &amp; Learning</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
+    <t>Erotica</t>
+  </si>
+  <si>
     <t>Narrator</t>
   </si>
   <si>
+    <t>Health &amp; Wellness</t>
+  </si>
+  <si>
     <t>Whispersync for Voice</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
     <t>Audible.com Release Date</t>
   </si>
   <si>
+    <t>Home &amp; Garden</t>
+  </si>
+  <si>
     <t>Publisher</t>
   </si>
   <si>
+    <t>LGBTQ+</t>
+  </si>
+  <si>
     <t>Program Type</t>
   </si>
   <si>
+    <t>Literature &amp; Fiction</t>
+  </si>
+  <si>
     <t>Version</t>
   </si>
   <si>
+    <t>Money &amp; Finance</t>
+  </si>
+  <si>
     <t>Language</t>
   </si>
   <si>
+    <t>Mystery, Thriller &amp; Suspense</t>
+  </si>
+  <si>
     <t>ASIN</t>
   </si>
   <si>
+    <t>Politics &amp; Social Sciences</t>
+  </si>
+  <si>
     <t>Best Sellers Rank</t>
+  </si>
+  <si>
+    <t>Relationships, Parenting &amp; Personal Development</t>
+  </si>
+  <si>
+    <t>Religion &amp; Spirituality</t>
+  </si>
+  <si>
+    <t>Romance</t>
+  </si>
+  <si>
+    <t>Science &amp; Engineering</t>
+  </si>
+  <si>
+    <t>Science Fiction &amp; Fantasy</t>
+  </si>
+  <si>
+    <t>Sports &amp; Outdoors</t>
+  </si>
+  <si>
+    <t>Teen</t>
+  </si>
+  <si>
+    <t>Travel &amp; Tourism</t>
   </si>
 </sst>
 </file>
@@ -80,8 +149,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -126,6 +195,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -136,50 +227,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,6 +272,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -225,46 +317,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,13 +354,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,7 +432,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,79 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,72 +535,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,6 +559,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -501,15 +590,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,8 +636,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,21 +656,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,130 +677,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,7 +1139,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1104,117 +1173,186 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B15" s="5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Arts &amp; Entertainment" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Arts-Entertainment/zgbs/audible/18571910011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="A3" r:id="rId1" display="Biographies &amp; Memoirs" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Biographies-Memoirs/zgbs/audible/18571951011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="A4" r:id="rId2" display="Business &amp; Careers" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Business-Careers/zgbs/audible/18572029011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="A5" r:id="rId3" display="Children's Audiobooks" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Children/zgbs/audible/18572091011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="A6" r:id="rId4" display="Computers &amp; Technology" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Computers-Technology/zgbs/audible/18573211011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="A7" r:id="rId5" display="Education &amp; Learning" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Education-Learning/zgbs/audible/18573267011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="A8" r:id="rId6" display="Erotica" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Erotica/zgbs/audible/18573351011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="A9" r:id="rId7" display="Health &amp; Wellness" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Health-Wellness/zgbs/audible/18573370011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="A10" r:id="rId8" display="History" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-History/zgbs/audible/18573518011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="A11" r:id="rId9" display="Home &amp; Garden" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Home-Garden/zgbs/audible/18573701011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="A12" r:id="rId10" display="LGBTQ+" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-LGBTQ/zgbs/audible/18573743011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="A13" r:id="rId11" display="Literature &amp; Fiction" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Literature-Fiction/zgbs/audible/18574426011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="A14" r:id="rId12" display="Money &amp; Finance" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Money-Finance/zgbs/audible/18574547011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="A15" r:id="rId13" display="Mystery, Thriller &amp; Suspense" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Mystery-Thriller-Suspense/zgbs/audible/18574597011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="A16" r:id="rId14" display="Politics &amp; Social Sciences" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Politics-Social-Sciences/zgbs/audible/18574641011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="A17" r:id="rId15" display="Relationships, Parenting &amp; Personal Development" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Relationships-Parenting-Personal-Development/zgbs/audible/18574784011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="A18" r:id="rId16" display="Religion &amp; Spirituality" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Religion-Spirituality/zgbs/audible/18574839011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="A19" r:id="rId17" display="Romance" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Romance/zgbs/audible/18580518011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="A20" r:id="rId18" display="Science &amp; Engineering" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Science-Engineering/zgbs/audible/18580540011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="A21" r:id="rId19" display="Science Fiction &amp; Fantasy" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Science-Fiction-Fantasy/zgbs/audible/18580606011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="A22" r:id="rId20" display="Sports &amp; Outdoors" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Sports-Outdoors/zgbs/audible/18580648011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="A23" r:id="rId21" display="Teen" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Teen/zgbs/audible/18580715011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="A24" r:id="rId22" display="Travel &amp; Tourism" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Travel-Tourism/zgbs/audible/18581095011/ref=zg_bs_nav_1_audible"/>
+    <hyperlink ref="A2" r:id="rId23" display="Arts &amp; Entertainment" tooltip="https://www.amazon.com/Best-Sellers-Audible-Audiobooks-Arts-Entertainment/zgbs/audible/18571910011/ref=zg_bs_nav_1_audible"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
